--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value194.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value194.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.172931989667349</v>
+        <v>4.088803768157959</v>
       </c>
       <c r="B1">
-        <v>1.884520926829934</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>2.835239460364599</v>
+        <v>3.853962182998657</v>
       </c>
       <c r="D1">
-        <v>2.173023705857259</v>
+        <v>3.295597791671753</v>
       </c>
       <c r="E1">
-        <v>0.6191993687873183</v>
+        <v>1.687453746795654</v>
       </c>
     </row>
   </sheetData>
